--- a/URLtable.xlsx
+++ b/URLtable.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_Atlas_launches_(1957%E2%80%931959)</t>
   </si>
@@ -47,7 +47,22 @@
     <t>https://en.wikipedia.org/wiki/List_of_Atlas_launches_(2000%E2%80%932009)</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/List_of_Atlas_launches_(2010%E2%80%932019)</t>
+    <t>https://en.wikipedia.org/wiki/List_of_Thor_and_Delta_launches_(1957%E2%80%9359)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_Thor_and_Delta_launches_(1960%E2%80%9369)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_Thor_and_Delta_launches_(1970%E2%80%9379)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_Thor_and_Delta_launches_(1980%E2%80%9389)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_Thor_and_Delta_launches_(1990%E2%80%9399)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_Thor_and_Delta_launches_(2000%E2%80%9309)</t>
   </si>
 </sst>
 </file>
@@ -362,50 +377,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
